--- a/help/mp_veteran_cvo.xlsx
+++ b/help/mp_veteran_cvo.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MedovikovOE\Documents\"/>
@@ -12,9 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10695"/>
   </bookViews>
   <sheets>
-    <sheet name="Свод" sheetId="1" r:id="rId1"/>
+    <sheet name="Итого" sheetId="3" r:id="rId1"/>
+    <sheet name="Свод" sheetId="1" r:id="rId2"/>
+    <sheet name="долг" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="296">
   <si>
     <t>Наименование МО</t>
   </si>
@@ -140,12 +142,862 @@
   <si>
     <t>Кол членов семей ветеранов СВО</t>
   </si>
+  <si>
+    <t>Список организаций</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская Александровская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская стоматологическая поликлиника №2"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская стоматологическая поликлиника №33"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская стоматологическая поликлиника №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская туберкулезная больница №2"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Городской центр восстановительного лечения детей с психоневрологическими нарушениями"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская больница №22 "</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детский городской многопрофильный клинический специализированный центр высоких медицинских технологий"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Восстановительный центр детской ортопедии и травматологии "Огонек"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская больница Святой Ольги"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская больница №17 св. Николая Чудотворца "</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "ДГМКЦ ВМТ им. К.А.Раухфуса"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская больница №2 святой Марии Магдалины"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "ДГКБ №5 им. Н.Ф. Филатова"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №44"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №49"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №51"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №63"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №68"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №40 Курортного района"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №71"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №62"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №73"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №45"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская стоматологическая поликлиника №1"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Детский городской сурдологический центр"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №11"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №35"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №7"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница Святого Праведного Иоанна Кронштадтского"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №19"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская городская поликлиника №29"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ Центр восстановительного лечения "Детская психиатрия"  имени С.С. Мнухина</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская стоматологическая поликлиника №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская инфекционная больница №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская поликлиника №30"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Пионер"  (психоневрологический)</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский психоневрологический санаторий "Комарово"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №14"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Аврора"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Детский санаторий "Берёзка"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Звездочка"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Детские Дюны"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Солнечное"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский санаторий "Спартак"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детская стоматологическая поликлиника №4"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Детский туберкулезный санаторий "Дружба"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Детский туберкулезный санаторий "Жемчужина"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №15"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Диагностический центр №7"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Диагностический центр (медико-генетический)"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Детский центр восстановительной медицины и реабилитации №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Елизаветинская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Женская консультация №18"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Женская консультация №22"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Женская консультация №33"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Женская консультация №40"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Женская консультация №44"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №20"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Женская консультация №5"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Клиническая больница Святителя Луки"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №11"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №4"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №7"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №5"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №26"</t>
+  </si>
+  <si>
+    <t>СПБ ГБУЗ "Кожно-венерологический диспансер №12 Невского района</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №10 - Клиника дерматологии и венерологии"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Консультативно-диагностическая поликлиника №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Консультативно-диагностический центр №85"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Консультативно-диагностический центр для детей "</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Клиническая ревматологическая больница №25"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №28"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Межрайонный Петроградско-Приморский противотуберкулезный диспансер №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №33"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Николаевская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Амбулатория Мариинская"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №38 им.Н.А. Семашко"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Онкологический диспансер Московского района"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ  "Психиатрическая больница Святого Николая Чудотворца"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Поликлиника городская стоматологическая №22"</t>
+  </si>
+  <si>
+    <t>ГБУЗ "Санкт-Петербургский клинический научно-практический центр специализированных видов медицинской помощи (онкологический)"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Психоневрологический дом ребенка №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №2"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №4"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №5"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №6"</t>
+  </si>
+  <si>
+    <t>СПб ГбУЗ "Психоневрологический диспансер №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер Фрунзенского района"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Госпиталь для ветеранов войн"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Психоневрологический дом ребенка №6"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Психоневрологический дом ребенка №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №28"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №37"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №38"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №88"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №98"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Пушкинский противотуберкулезный диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №16"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №12"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №14"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №16"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №2"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №4"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №5"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №11"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Противотуберкулезный диспансер №15"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской гериатрический медико-социальный центр"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №6 им.проф. В.Ф. Снегирева"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №1 (специализированный)"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №13"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской перинатальный центр №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №10"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №16"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Родильный дом №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Детский пульмонологический санаторий "Салют"</t>
+  </si>
+  <si>
+    <t>СПБ ГКУЗ «Специализированный Дом ребенка №3 (психоневрологический)"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №15"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №18"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №29"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №32"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская детская стоматологическая поликлиника №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №8"</t>
+  </si>
+  <si>
+    <t>ГБУ СПб НИИ СП  им.И.И.Джанелидзе</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №19"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №10"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №20"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №28 Красносельского района"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №31"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №9"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №11"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Гериатрическая больница №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №13"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №30"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №4"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Городская поликлиника №81"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Городская поликлиника №83"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Городская поликлиника №40"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психоневрологический диспансер №10"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Стоматологическая поликлиника №12"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская клиническая больница №31"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Кожно-венерологический диспансер №2"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Специализированный психоневрологический дом ребенка № 13 Адмиралтейского района Санкт-Петербурга"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Клиническая инфекционная больница им. С.П. Боткина"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской консультативно диагностический центр №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Туберкулезная больница №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ Городской туберкулезный санаторий "Сосновый Бор"</t>
+  </si>
+  <si>
+    <t>СПб ГАУЗ "Хоспис (детский)"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Хоспис №2"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Хоспис №3"</t>
+  </si>
+  <si>
+    <t>ГБУЗ ГЦОРЗП "Городской центр охраны репродуктивного здоровья подростков "Ювента""</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Хоспис №4"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Хоспис №1"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Центр планирования семьи и репродукции"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Центр по профилактике и борьбе со СПИД и инфекционными заболеваниями"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской клинический онкологический диспансер"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская Мариинская Больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская многопрофильная больница №2"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская наркологическая больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской кожно-венерологический диспансер "</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №100"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №102"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №104"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница Св. Георгия"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №106"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №107"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №109"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №111"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №112"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №114"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №117"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №118"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №120"</t>
+  </si>
+  <si>
+    <t>Спб ГБУЗ "Городская поликлиника №122"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №14"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №17"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №19"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "городская поликлиника №21"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №22"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №23"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №24"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №25"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №27"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №3"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Психиатрическая больница №1 им.П.П.Кащенко"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №30"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №32"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №34"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №39"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №4"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №43"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №44"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №46"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №48"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №49"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Введенская  больница"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №51"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №52"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №54"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №56"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №6"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №60"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №62"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №71"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №72"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №74"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №75"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №76"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №77"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №78"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №8"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №86"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №87"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №91"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №93"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №94"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №95"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №96"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №97"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская поликлиника №99"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская Покровская больница"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Городская психиатрическая больница №6 (стационар с диспансером)"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская психиатрическая больница №7 имени академика И.П. Павлова"</t>
+  </si>
+  <si>
+    <t>СПб ГКУЗ "Городская психиатрическая больница №3 им И.И. Скворцова-Степанова"</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городской противотуберкулезный диспансер"</t>
+  </si>
+  <si>
+    <t>Наличие в отчете</t>
+  </si>
+  <si>
+    <t>"Отчёт о количестве Ветеранов СВО, а также членов семей ветеранов СВО, 
+обратившихся за оказанием медицинской помощи"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>№</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Показатель</t>
+    </r>
+  </si>
+  <si>
+    <t>Количество ветеранов СВО, обратившихся 
+за оказанием медицинской помощи,
+чел.</t>
+  </si>
+  <si>
+    <t>Количество членов семей ветеранов СВО, обратившихся за оказанием медицинской помощи,
+чел.</t>
+  </si>
+  <si>
+    <t>за отчётный период</t>
+  </si>
+  <si>
+    <t>нарастающим итогом</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Количество человек, обратившихся за оказанием медицинской помощи в амбулаторных условиях</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Количество человек, обратившихся за оказанием медицинской помощи в стационарных условиях</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Количество человек, обратившихся за оказанием психологической / психотерапевтической помощи</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Количество человек, обратившихся за оказанием стоматологической помощи</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Количество человек, обратившихся за оказанием медицинской реабилитации</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Установлена группа инвалидности:</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>I группа</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>II группа</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>III группа</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>в амбулаторных условиях</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>в стационарных условиях</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,16 +1051,70 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -305,33 +1211,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,12 +1447,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -636,9 +1783,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="17" customWidth="1"/>
+    <col min="3" max="6" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B1:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>SUM($D$6+$D$7+$D$8+$D$9+$D$10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>SUM($F$6+$F$7+$F$8+$F$9+$F$10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>SUM($F$13+$F$14+$F$15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>SUM($D$13+$D$14+$D$15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>SUM($D$17+$D$18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>SUM($F$17+$F$18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -648,432 +2071,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="1" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="1" t="s">
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
     </row>
     <row r="2" spans="1:57" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="11" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="5" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="5" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="4" t="s">
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
     </row>
     <row r="3" spans="1:57" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="39"/>
+      <c r="T3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="14" t="s">
+      <c r="U3" s="39"/>
+      <c r="V3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="14" t="s">
+      <c r="W3" s="39"/>
+      <c r="X3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="5" t="s">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="14" t="s">
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="14" t="s">
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="14" t="s">
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="14" t="s">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="5" t="s">
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="14" t="s">
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="14" t="s">
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="14" t="s">
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="5" t="s">
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="14" t="s">
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="14" t="s">
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="5" t="s">
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="14" t="s">
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="14" t="s">
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="BE3" s="15"/>
+      <c r="BE3" s="39"/>
     </row>
     <row r="4" spans="1:57" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="BD3:BE3"/>
     <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="AT3:AU3"/>
@@ -1081,20 +2503,16 @@
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AZ3:BA3"/>
     <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AP3:AQ3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="N2:Y2"/>
     <mergeCell ref="B1:Y1"/>
@@ -1106,6 +2524,11 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="Z1:AR1"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="AT1:BE1"/>
     <mergeCell ref="AZ2:BE2"/>
     <mergeCell ref="AJ2:AS2"/>
@@ -1114,4 +2537,1248 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F240"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="140.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>